--- a/AOS Shopping/Default.xlsx
+++ b/AOS Shopping/Default.xlsx
@@ -491,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
@@ -516,6 +516,11 @@
     <row>
       <c s="2">
         <v>3</v>
+      </c>
+    </row>
+    <row>
+      <c s="2">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
